--- a/HoI2Editor/Documents/Design/misc.xlsx
+++ b/HoI2Editor/Documents/Design/misc.xlsx
@@ -25594,7 +25594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -58527,7 +58527,7 @@
       </c>
       <c r="C337" s="10"/>
       <c r="D337" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E337" s="10">
         <v>1</v>
